--- a/Tourist/2017.xlsx
+++ b/Tourist/2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\Tourist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED58D9-486C-4BDE-8EBB-C5CFC3EC2ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7E3EE-89BE-497B-BDE5-2694463099E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="63">
   <si>
     <t>Number</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Others</t>
   </si>
   <si>
     <t>Europe</t>
@@ -214,6 +211,27 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Others in East Asia</t>
+  </si>
+  <si>
+    <t>Others in Europe</t>
+  </si>
+  <si>
+    <t>Others in The Americas</t>
+  </si>
+  <si>
+    <t>Others in South Asia</t>
+  </si>
+  <si>
+    <t>Others in Oceania</t>
+  </si>
+  <si>
+    <t>Others in Middle East</t>
+  </si>
+  <si>
+    <t>Others in Africa</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -435,6 +453,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -442,7 +536,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,31 +713,30 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -964,7 +1057,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -984,7 +1077,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>1932723</v>
@@ -1104,7 +1197,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="13">
         <v>5806</v>
@@ -1112,7 +1205,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14">
         <v>811741</v>
@@ -1120,7 +1213,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15">
         <v>14402</v>
@@ -1128,7 +1221,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12">
         <v>11107</v>
@@ -1136,7 +1229,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>27537</v>
@@ -1144,7 +1237,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12">
         <v>26980</v>
@@ -1152,7 +1245,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>88210</v>
@@ -1160,7 +1253,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12">
         <v>91346</v>
@@ -1168,7 +1261,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11">
         <v>34537</v>
@@ -1176,7 +1269,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="12">
         <v>22116</v>
@@ -1184,7 +1277,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11">
         <v>18011</v>
@@ -1192,7 +1285,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>176881</v>
@@ -1200,7 +1293,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>10386</v>
@@ -1208,7 +1301,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12">
         <v>61087</v>
@@ -1216,7 +1309,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11">
         <v>24828</v>
@@ -1224,7 +1317,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="12">
         <v>94087</v>
@@ -1232,7 +1325,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="11">
         <v>81994</v>
@@ -1240,7 +1333,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16">
         <v>28232</v>
@@ -1248,7 +1341,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="14">
         <v>161195</v>
@@ -1256,7 +1349,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="15">
         <v>11995</v>
@@ -1264,7 +1357,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12">
         <v>10583</v>
@@ -1272,7 +1365,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="11">
         <v>29186</v>
@@ -1280,7 +1373,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="12">
         <v>101785</v>
@@ -1288,7 +1381,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="13">
         <v>7646</v>
@@ -1296,7 +1389,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="14">
         <v>137406</v>
@@ -1304,7 +1397,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="15">
         <v>9678</v>
@@ -1312,7 +1405,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="12">
         <v>107227</v>
@@ -1320,7 +1413,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11">
         <v>4575</v>
@@ -1328,7 +1421,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="12">
         <v>6659</v>
@@ -1336,7 +1429,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="11">
         <v>4447</v>
@@ -1344,7 +1437,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16">
         <v>4820</v>
@@ -1352,7 +1445,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="14">
         <v>76833</v>
@@ -1360,7 +1453,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="15">
         <v>68131</v>
@@ -1368,7 +1461,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="12">
         <v>8467</v>
@@ -1376,7 +1469,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13">
         <v>235</v>
@@ -1384,7 +1477,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="14">
         <v>65246</v>
@@ -1392,7 +1485,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="15">
         <v>2112</v>
@@ -1400,7 +1493,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="12">
         <v>16568</v>
@@ -1408,7 +1501,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="11">
         <v>7820</v>
@@ -1416,7 +1509,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="12">
         <v>2455</v>
@@ -1424,7 +1517,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="11">
         <v>6998</v>
@@ -1432,7 +1525,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="16">
         <v>29293</v>
@@ -1440,7 +1533,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="14">
         <v>11909</v>
@@ -1448,7 +1541,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="15">
         <v>5016</v>
@@ -1456,7 +1549,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="16">
         <v>6893</v>
@@ -1464,7 +1557,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="17">
         <v>3197053</v>
@@ -1480,7 +1573,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>0</v>
@@ -1499,7 +1592,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="50">
         <v>1846292</v>
@@ -1619,7 +1712,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="45">
         <v>4325</v>
@@ -1627,7 +1720,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="46">
         <v>477946</v>
@@ -1635,7 +1728,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="47">
         <v>7281</v>
@@ -1643,7 +1736,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="44">
         <v>7832</v>
@@ -1651,7 +1744,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="43">
         <v>10390</v>
@@ -1659,7 +1752,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="44">
         <v>6931</v>
@@ -1667,7 +1760,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="43">
         <v>54347</v>
@@ -1675,7 +1768,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="44">
         <v>72732</v>
@@ -1683,7 +1776,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="43">
         <v>14679</v>
@@ -1691,7 +1784,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="44">
         <v>15604</v>
@@ -1699,7 +1792,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="43">
         <v>7694</v>
@@ -1707,7 +1800,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="44">
         <v>105592</v>
@@ -1715,7 +1808,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="43">
         <v>15974</v>
@@ -1723,7 +1816,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44">
         <v>17863</v>
@@ -1731,7 +1824,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="43">
         <v>16625</v>
@@ -1739,7 +1832,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="44">
         <v>75431</v>
@@ -1747,7 +1840,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="43">
         <v>29636</v>
@@ -1755,7 +1848,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="48">
         <v>19335</v>
@@ -1763,7 +1856,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="46">
         <v>113155</v>
@@ -1771,7 +1864,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="47">
         <v>3451</v>
@@ -1779,7 +1872,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="44">
         <v>5211</v>
@@ -1787,7 +1880,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="43">
         <v>19134</v>
@@ -1795,7 +1888,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="44">
         <v>77854</v>
@@ -1803,7 +1896,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="45">
         <v>7505</v>
@@ -1811,7 +1904,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="46">
         <v>139037</v>
@@ -1819,7 +1912,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="47">
         <v>8637</v>
@@ -1827,7 +1920,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="44">
         <v>112472</v>
@@ -1835,7 +1928,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="43">
         <v>3801</v>
@@ -1843,7 +1936,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="44">
         <v>6435</v>
@@ -1851,7 +1944,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="43">
         <v>4342</v>
@@ -1859,7 +1952,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="48">
         <v>3350</v>
@@ -1867,7 +1960,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="46">
         <v>82012</v>
@@ -1875,7 +1968,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="47">
         <v>71167</v>
@@ -1883,7 +1976,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="44">
         <v>10607</v>
@@ -1891,7 +1984,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="45">
         <v>238</v>
@@ -1899,7 +1992,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="46">
         <v>52517</v>
@@ -1907,7 +2000,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="47">
         <v>1716</v>
@@ -1915,7 +2008,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="44">
         <v>14443</v>
@@ -1923,7 +2016,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="43">
         <v>4008</v>
@@ -1931,7 +2024,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="44">
         <v>1890</v>
@@ -1939,7 +2032,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="43">
         <v>6861</v>
@@ -1947,7 +2040,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="48">
         <v>23599</v>
@@ -1955,7 +2048,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="46">
         <v>14984</v>
@@ -1963,7 +2056,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="47">
         <v>7985</v>
@@ -1971,7 +2064,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="48">
         <v>6999</v>
@@ -1979,7 +2072,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="49">
         <v>2725943</v>
@@ -1992,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2004,502 +2097,500 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="50">
-        <v>2281488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1890937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="43">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="44">
-        <v>105528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="43">
-        <v>51347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="44">
-        <v>144479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="43">
-        <v>200664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>219824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="44">
-        <v>34261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="43">
-        <v>35355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="44">
-        <v>105888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="43">
-        <v>70475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="44">
-        <v>1070608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>790682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="43">
-        <v>80083</v>
-      </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="44">
-        <v>149404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="43">
-        <v>167624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="44">
-        <v>57143</v>
+        <v>46544</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="45">
-        <v>7763</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="46">
-        <v>697131</v>
+        <v>652046</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="47">
-        <v>10832</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="44">
-        <v>10614</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="43">
-        <v>13736</v>
+        <v>12727</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="44">
-        <v>18011</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="43">
-        <v>58538</v>
+        <v>63179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="44">
-        <v>87484</v>
+        <v>86601</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="43">
-        <v>23696</v>
+        <v>23071</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="44">
-        <v>19767</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="43">
-        <v>12247</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="44">
-        <v>198667</v>
+        <v>163294</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="43">
-        <v>17419</v>
+        <v>16228</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44">
-        <v>28834</v>
+        <v>28031</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="43">
-        <v>21356</v>
+        <v>20771</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="44">
-        <v>82401</v>
+        <v>87631</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="43">
-        <v>65176</v>
+        <v>56530</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="48">
-        <v>28353</v>
+        <v>26060</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="46">
-        <v>155873</v>
+        <v>151307</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="47">
-        <v>2325</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="44">
-        <v>4717</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="43">
-        <v>28149</v>
+        <v>26078</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="44">
-        <v>112160</v>
+        <v>105058</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="45">
-        <v>8522</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="46">
-        <v>176362</v>
+        <v>145565</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="47">
-        <v>12371</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="44">
-        <v>141775</v>
+        <v>116796</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="43">
-        <v>2411</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="44">
-        <v>7480</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="43">
-        <v>6269</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="48">
-        <v>6056</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="46">
+        <v>70701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="46">
-        <v>73115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="47">
+        <v>61863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="44">
+        <v>8481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="46">
+        <v>50858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="47">
-        <v>63620</v>
-      </c>
-      <c r="D49" s="68"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="44">
-        <v>9019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="45">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="B53" s="47">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="44">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="43">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="46">
-        <v>49465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="47">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="44">
-        <v>13812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="B56" s="44">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="43">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="B57" s="43">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="48">
+        <v>24828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="46">
+        <v>12887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="47">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="48">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="44">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="43">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="48">
-        <v>24259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="46">
-        <v>15725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="47">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="48">
-        <v>7660</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="B62" s="49">
-        <v>3449159</v>
+        <v>2974301</v>
       </c>
     </row>
   </sheetData>
@@ -2511,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>0</v>
@@ -2531,494 +2622,495 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="67">
-        <v>1791135</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="60">
+        <v>2181686</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64">
-        <v>2241</v>
+      <c r="B3" s="61">
+        <v>2012</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="65">
-        <v>65514</v>
+      <c r="B4" s="62">
+        <v>89762</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="64">
-        <v>50677</v>
+      <c r="B5" s="61">
+        <v>53216</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="65">
-        <v>131847</v>
+      <c r="B6" s="62">
+        <v>154007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="64">
-        <v>384956</v>
+      <c r="B7" s="61">
+        <v>365796</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="65">
-        <v>33272</v>
+      <c r="B8" s="62">
+        <v>37185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64">
-        <v>30353</v>
+      <c r="B9" s="61">
+        <v>31244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="65">
-        <v>120277</v>
+      <c r="B10" s="62">
+        <v>129112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64">
-        <v>58935</v>
+      <c r="B11" s="61">
+        <v>66785</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="65">
-        <v>535566</v>
+      <c r="B12" s="62">
+        <v>815492</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="64">
-        <v>62969</v>
+      <c r="B13" s="61">
+        <v>80491</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="65">
-        <v>128916</v>
+      <c r="B14" s="62">
+        <v>138189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="64">
-        <v>141566</v>
+      <c r="B15" s="61">
+        <v>161447</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="65">
-        <v>37502</v>
+      <c r="B16" s="62">
+        <v>48101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="66">
-        <v>6544</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="63">
+        <v>8847</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="63">
-        <v>778993</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="64">
+        <v>824078</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="62">
-        <v>13068</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="65">
+        <v>14187</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="65">
-        <v>12629</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="62">
+        <v>12463</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="64">
-        <v>17218</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="61">
+        <v>18227</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="65">
-        <v>25664</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="62">
+        <v>26829</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="64">
-        <v>76988</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="61">
+        <v>72347</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="65">
-        <v>93442</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="62">
+        <v>94325</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="64">
-        <v>35415</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="61">
+        <v>36040</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="65">
-        <v>22907</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="62">
+        <v>23196</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="64">
-        <v>16443</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="61">
+        <v>17584</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="65">
-        <v>161835</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="62">
+        <v>197208</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="64">
-        <v>12245</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="61">
+        <v>13436</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="65">
-        <v>63813</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="62">
+        <v>64616</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="64">
-        <v>27339</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="61">
+        <v>27924</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="65">
-        <v>113122</v>
+        <v>47</v>
+      </c>
+      <c r="B32" s="62">
+        <v>107892</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="64">
-        <v>59431</v>
+        <v>48</v>
+      </c>
+      <c r="B33" s="61">
+        <v>68077</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="61">
-        <v>27434</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="66">
+        <v>29727</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="63">
-        <v>169225</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="64">
+        <v>173791</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="62">
-        <v>5527</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="65">
+        <v>4005</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="65">
-        <v>13570</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="62">
+        <v>10161</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="64">
-        <v>27579</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="61">
+        <v>29650</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="65">
-        <v>115001</v>
+        <v>32</v>
+      </c>
+      <c r="B39" s="62">
+        <v>122103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="66">
-        <v>7548</v>
+        <v>58</v>
+      </c>
+      <c r="B40" s="63">
+        <v>7872</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="63">
-        <v>148168</v>
+        <v>50</v>
+      </c>
+      <c r="B41" s="64">
+        <v>178965</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="62">
-        <v>10597</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="65">
+        <v>14111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="65">
-        <v>113705</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="62">
+        <v>138684</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="64">
-        <v>3995</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="61">
+        <v>3604</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="65">
-        <v>7638</v>
+        <v>36</v>
+      </c>
+      <c r="B45" s="62">
+        <v>8110</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="64">
-        <v>6522</v>
+        <v>51</v>
+      </c>
+      <c r="B46" s="61">
+        <v>7064</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="61">
-        <v>5711</v>
+        <v>59</v>
+      </c>
+      <c r="B47" s="66">
+        <v>7392</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="63">
-        <v>85680</v>
+        <v>37</v>
+      </c>
+      <c r="B48" s="64">
+        <v>88094</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="62">
-        <v>74629</v>
+        <v>38</v>
+      </c>
+      <c r="B49" s="65">
+        <v>76386</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="65">
-        <v>10779</v>
+        <v>52</v>
+      </c>
+      <c r="B50" s="62">
+        <v>11317</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="66">
-        <v>272</v>
+        <v>60</v>
+      </c>
+      <c r="B51" s="63">
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="63">
-        <v>62447</v>
+        <v>53</v>
+      </c>
+      <c r="B52" s="64">
+        <v>61054</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="62">
-        <v>2056</v>
+        <v>39</v>
+      </c>
+      <c r="B53" s="65">
+        <v>2016</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="65">
-        <v>16331</v>
+        <v>40</v>
+      </c>
+      <c r="B54" s="62">
+        <v>18483</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="64">
-        <v>3993</v>
+        <v>41</v>
+      </c>
+      <c r="B55" s="61">
+        <v>4139</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="65">
-        <v>1677</v>
+        <v>54</v>
+      </c>
+      <c r="B56" s="62">
+        <v>1344</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="64">
-        <v>13764</v>
+        <v>42</v>
+      </c>
+      <c r="B57" s="61">
+        <v>11015</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="61">
-        <v>24626</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="66">
+        <v>24057</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="63">
-        <v>25088</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="64">
+        <v>27926</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="62">
-        <v>15703</v>
+        <v>45</v>
+      </c>
+      <c r="B60" s="65">
+        <v>18184</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="61">
-        <v>9385</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="66">
+        <v>9742</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="60">
-        <v>3060736</v>
+        <v>55</v>
+      </c>
+      <c r="B62" s="67">
+        <v>3535594</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3027,7 +3119,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3130,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3046,7 +3138,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>1846377</v>
@@ -3166,7 +3258,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="13">
         <v>3919</v>
@@ -3174,7 +3266,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14">
         <v>757758</v>
@@ -3182,7 +3274,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15">
         <v>14042</v>
@@ -3190,7 +3282,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12">
         <v>10089</v>
@@ -3198,7 +3290,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>28467</v>
@@ -3206,7 +3298,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12">
         <v>23272</v>
@@ -3214,7 +3306,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>105851</v>
@@ -3222,7 +3314,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12">
         <v>94227</v>
@@ -3230,7 +3322,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11">
         <v>26560</v>
@@ -3238,7 +3330,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="12">
         <v>17459</v>
@@ -3246,7 +3338,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11">
         <v>16190</v>
@@ -3254,7 +3346,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>155175</v>
@@ -3262,7 +3354,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>9760</v>
@@ -3270,7 +3362,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12">
         <v>51960</v>
@@ -3278,7 +3370,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11">
         <v>24273</v>
@@ -3286,7 +3378,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="12">
         <v>87082</v>
@@ -3294,7 +3386,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="11">
         <v>70183</v>
@@ -3302,7 +3394,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16">
         <v>23168</v>
@@ -3310,7 +3402,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="14">
         <v>142196</v>
@@ -3318,7 +3410,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="15">
         <v>10465</v>
@@ -3326,7 +3418,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12">
         <v>9349</v>
@@ -3334,7 +3426,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="11">
         <v>26856</v>
@@ -3342,7 +3434,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="12">
         <v>87687</v>
@@ -3350,7 +3442,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="13">
         <v>7839</v>
@@ -3358,7 +3450,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="14">
         <v>119391</v>
@@ -3366,7 +3458,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="15">
         <v>8675</v>
@@ -3374,7 +3466,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="12">
         <v>93618</v>
@@ -3382,7 +3474,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11">
         <v>3948</v>
@@ -3390,7 +3482,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="12">
         <v>5607</v>
@@ -3398,7 +3490,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="11">
         <v>4492</v>
@@ -3406,7 +3498,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16">
         <v>3051</v>
@@ -3414,7 +3506,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="14">
         <v>61134</v>
@@ -3422,7 +3514,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="15">
         <v>54280</v>
@@ -3430,7 +3522,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="12">
         <v>6653</v>
@@ -3438,7 +3530,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13">
         <v>201</v>
@@ -3446,7 +3538,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="14">
         <v>51839</v>
@@ -3454,7 +3546,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="15">
         <v>1791</v>
@@ -3462,7 +3554,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="12">
         <v>15462</v>
@@ -3470,7 +3562,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="11">
         <v>3722</v>
@@ -3478,7 +3570,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="12">
         <v>1592</v>
@@ -3486,7 +3578,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="11">
         <v>5515</v>
@@ -3494,7 +3586,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="16">
         <v>23757</v>
@@ -3502,7 +3594,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="14">
         <v>10476</v>
@@ -3510,7 +3602,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="15">
         <v>3875</v>
@@ -3518,7 +3610,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="16">
         <v>6601</v>
@@ -3526,7 +3618,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="17">
         <v>2989171</v>
@@ -3542,7 +3634,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3553,7 +3645,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3561,7 +3653,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>1913482</v>
@@ -3681,7 +3773,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="13">
         <v>5083</v>
@@ -3689,7 +3781,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14">
         <v>656554</v>
@@ -3697,7 +3789,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15">
         <v>9200</v>
@@ -3705,7 +3797,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12">
         <v>9983</v>
@@ -3713,7 +3805,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>17230</v>
@@ -3721,7 +3813,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12">
         <v>17390</v>
@@ -3729,7 +3821,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>75525</v>
@@ -3737,7 +3829,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12">
         <v>97701</v>
@@ -3745,7 +3837,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11">
         <v>19974</v>
@@ -3753,7 +3845,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="12">
         <v>15516</v>
@@ -3761,7 +3853,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11">
         <v>9947</v>
@@ -3769,7 +3861,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>156931</v>
@@ -3777,7 +3869,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>9889</v>
@@ -3785,7 +3877,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12">
         <v>37289</v>
@@ -3793,7 +3885,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11">
         <v>17444</v>
@@ -3801,7 +3893,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="12">
         <v>88826</v>
@@ -3809,7 +3901,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="11">
         <v>53391</v>
@@ -3817,7 +3909,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16">
         <v>20318</v>
@@ -3825,7 +3917,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="14">
         <v>145085</v>
@@ -3833,7 +3925,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="15">
         <v>9762</v>
@@ -3841,7 +3933,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12">
         <v>8981</v>
@@ -3849,7 +3941,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="11">
         <v>25402</v>
@@ -3857,7 +3949,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="12">
         <v>93768</v>
@@ -3865,7 +3957,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="13">
         <v>7172</v>
@@ -3873,7 +3965,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="14">
         <v>134564</v>
@@ -3881,7 +3973,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="15">
         <v>10709</v>
@@ -3889,7 +3981,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="12">
         <v>103634</v>
@@ -3897,7 +3989,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11">
         <v>4132</v>
@@ -3905,7 +3997,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="12">
         <v>7901</v>
@@ -3913,7 +4005,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="11">
         <v>4842</v>
@@ -3921,7 +4013,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16">
         <v>3346</v>
@@ -3929,7 +4021,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="14">
         <v>68296</v>
@@ -3937,7 +4029,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="15">
         <v>60244</v>
@@ -3945,7 +4037,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="12">
         <v>7720</v>
@@ -3953,7 +4045,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13">
         <v>332</v>
@@ -3961,7 +4053,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="14">
         <v>75747</v>
@@ -3969,7 +4061,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="15">
         <v>2138</v>
@@ -3977,7 +4069,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="12">
         <v>14134</v>
@@ -3985,7 +4077,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="11">
         <v>4226</v>
@@ -3993,7 +4085,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="12">
         <v>2425</v>
@@ -4001,7 +4093,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="11">
         <v>13809</v>
@@ -4009,7 +4101,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="16">
         <v>39015</v>
@@ -4017,7 +4109,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="14">
         <v>14105</v>
@@ -4025,7 +4117,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="15">
         <v>6214</v>
@@ -4033,7 +4125,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="16">
         <v>7891</v>
@@ -4041,7 +4133,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="17">
         <v>3007833</v>
@@ -4057,7 +4149,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4068,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4076,7 +4168,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>1877624</v>
@@ -4196,7 +4288,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="13">
         <v>5437</v>
@@ -4204,7 +4296,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14">
         <v>513259</v>
@@ -4212,7 +4304,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15">
         <v>7294</v>
@@ -4220,7 +4312,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="12">
         <v>9222</v>
@@ -4228,7 +4320,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>10335</v>
@@ -4236,7 +4328,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="12">
         <v>5745</v>
@@ -4244,7 +4336,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>61003</v>
@@ -4252,7 +4344,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12">
         <v>75902</v>
@@ -4260,7 +4352,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11">
         <v>15918</v>
@@ -4268,7 +4360,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="12">
         <v>16284</v>
@@ -4276,7 +4368,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11">
         <v>8989</v>
@@ -4284,7 +4376,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>106631</v>
@@ -4292,7 +4384,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>10795</v>
@@ -4300,7 +4392,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12">
         <v>16322</v>
@@ -4308,7 +4400,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11">
         <v>21171</v>
@@ -4316,7 +4408,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="12">
         <v>99445</v>
@@ -4324,7 +4416,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="11">
         <v>28509</v>
@@ -4332,7 +4424,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16">
         <v>19694</v>
@@ -4340,7 +4432,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="14">
         <v>130398</v>
@@ -4348,7 +4440,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="15">
         <v>6247</v>
@@ -4356,7 +4448,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12">
         <v>6469</v>
@@ -4364,7 +4456,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="11">
         <v>21751</v>
@@ -4372,7 +4464,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="12">
         <v>87147</v>
@@ -4380,7 +4472,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="13">
         <v>8784</v>
@@ -4388,7 +4480,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="14">
         <v>135956</v>
@@ -4396,7 +4488,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="15">
         <v>9218</v>
@@ -4404,7 +4496,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="12">
         <v>107451</v>
@@ -4412,7 +4504,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11">
         <v>2741</v>
@@ -4420,7 +4512,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="12">
         <v>6132</v>
@@ -4428,7 +4520,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="11">
         <v>7081</v>
@@ -4436,7 +4528,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="16">
         <v>3333</v>
@@ -4444,7 +4536,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="14">
         <v>89716</v>
@@ -4452,7 +4544,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="15">
         <v>78772</v>
@@ -4460,7 +4552,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="12">
         <v>10683</v>
@@ -4468,7 +4560,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13">
         <v>261</v>
@@ -4476,7 +4568,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="14">
         <v>61669</v>
@@ -4484,7 +4576,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="15">
         <v>2006</v>
@@ -4492,7 +4584,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="12">
         <v>17147</v>
@@ -4500,7 +4592,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="11">
         <v>4747</v>
@@ -4508,7 +4600,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="12">
         <v>2456</v>
@@ -4516,7 +4608,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="11">
         <v>9563</v>
@@ -4524,7 +4616,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="16">
         <v>25750</v>
@@ -4532,7 +4624,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="14">
         <v>18938</v>
@@ -4540,7 +4632,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="15">
         <v>11159</v>
@@ -4548,7 +4640,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="16">
         <v>7779</v>
@@ -4556,7 +4648,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="17">
         <v>2827560</v>
@@ -4572,7 +4664,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4583,7 +4675,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4591,7 +4683,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="26">
         <v>1889287</v>
@@ -4711,7 +4803,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="21">
         <v>4735</v>
@@ -4719,7 +4811,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="22">
         <v>303166</v>
@@ -4727,7 +4819,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23">
         <v>4004</v>
@@ -4735,7 +4827,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="20">
         <v>5168</v>
@@ -4743,7 +4835,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="19">
         <v>5241</v>
@@ -4751,7 +4843,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="20">
         <v>3554</v>
@@ -4759,7 +4851,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="19">
         <v>35581</v>
@@ -4767,7 +4859,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="20">
         <v>39624</v>
@@ -4775,7 +4867,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="19">
         <v>9839</v>
@@ -4783,7 +4875,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="20">
         <v>11572</v>
@@ -4791,7 +4883,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="19">
         <v>3999</v>
@@ -4799,7 +4891,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="20">
         <v>65654</v>
@@ -4807,7 +4899,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="19">
         <v>8461</v>
@@ -4815,7 +4907,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="20">
         <v>7193</v>
@@ -4823,7 +4915,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="19">
         <v>9374</v>
@@ -4831,7 +4923,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="20">
         <v>62646</v>
@@ -4839,7 +4931,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="19">
         <v>17329</v>
@@ -4847,7 +4939,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="24">
         <v>13927</v>
@@ -4855,7 +4947,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="22">
         <v>111221</v>
@@ -4863,7 +4955,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="23">
         <v>3996</v>
@@ -4871,7 +4963,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="20">
         <v>4737</v>
@@ -4879,7 +4971,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="19">
         <v>19236</v>
@@ -4887,7 +4979,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="20">
         <v>76500</v>
@@ -4895,7 +4987,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="21">
         <v>6752</v>
@@ -4903,7 +4995,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="22">
         <v>164721</v>
@@ -4911,7 +5003,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="23">
         <v>8976</v>
@@ -4919,7 +5011,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="20">
         <v>139541</v>
@@ -4927,7 +5019,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="19">
         <v>2667</v>
@@ -4935,7 +5027,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="20">
         <v>5245</v>
@@ -4943,7 +5035,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="19">
         <v>5082</v>
@@ -4951,7 +5043,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="24">
         <v>3210</v>
@@ -4959,7 +5051,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="22">
         <v>69624</v>
@@ -4967,7 +5059,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="23">
         <v>60249</v>
@@ -4975,7 +5067,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="20">
         <v>9027</v>
@@ -4983,7 +5075,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="21">
         <v>348</v>
@@ -4991,7 +5083,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="22">
         <v>38980</v>
@@ -4999,7 +5091,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="23">
         <v>1314</v>
@@ -5007,7 +5099,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="20">
         <v>7204</v>
@@ -5015,7 +5107,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="19">
         <v>3433</v>
@@ -5023,7 +5115,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="20">
         <v>1298</v>
@@ -5031,7 +5123,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="19">
         <v>6482</v>
@@ -5039,7 +5131,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="24">
         <v>19249</v>
@@ -5047,7 +5139,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="22">
         <v>13534</v>
@@ -5055,7 +5147,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="23">
         <v>6430</v>
@@ -5063,7 +5155,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="24">
         <v>7104</v>
@@ -5071,7 +5163,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="25">
         <v>2590533</v>
@@ -5088,7 +5180,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5099,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5107,7 +5199,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="34">
         <v>1979412</v>
@@ -5227,7 +5319,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="29">
         <v>4937</v>
@@ -5235,7 +5327,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="30">
         <v>312014</v>
@@ -5243,7 +5335,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="31">
         <v>3707</v>
@@ -5251,7 +5343,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="28">
         <v>6090</v>
@@ -5259,7 +5351,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="27">
         <v>7026</v>
@@ -5267,7 +5359,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="28">
         <v>4109</v>
@@ -5275,7 +5367,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="27">
         <v>29953</v>
@@ -5283,7 +5375,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="28">
         <v>39281</v>
@@ -5291,7 +5383,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="27">
         <v>11504</v>
@@ -5299,7 +5391,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="28">
         <v>11431</v>
@@ -5307,7 +5399,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="27">
         <v>10013</v>
@@ -5315,7 +5407,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="28">
         <v>57872</v>
@@ -5323,7 +5415,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="27">
         <v>10660</v>
@@ -5331,7 +5423,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="28">
         <v>12110</v>
@@ -5339,7 +5431,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="27">
         <v>8269</v>
@@ -5347,7 +5439,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="28">
         <v>67255</v>
@@ -5355,7 +5447,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="27">
         <v>16461</v>
@@ -5363,7 +5455,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="32">
         <v>16273</v>
@@ -5371,7 +5463,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="30">
         <v>115765</v>
@@ -5379,7 +5471,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="31">
         <v>2629</v>
@@ -5387,7 +5479,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="28">
         <v>4969</v>
@@ -5395,7 +5487,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="27">
         <v>15248</v>
@@ -5403,7 +5495,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="28">
         <v>86997</v>
@@ -5411,7 +5503,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="29">
         <v>5922</v>
@@ -5419,7 +5511,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="30">
         <v>162907</v>
@@ -5427,7 +5519,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="31">
         <v>9535</v>
@@ -5435,7 +5527,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="28">
         <v>138278</v>
@@ -5443,7 +5535,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="27">
         <v>2932</v>
@@ -5451,7 +5543,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="28">
         <v>4516</v>
@@ -5459,7 +5551,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="27">
         <v>4546</v>
@@ -5467,7 +5559,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="32">
         <v>3100</v>
@@ -5475,7 +5567,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="30">
         <v>81677</v>
@@ -5483,7 +5575,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="31">
         <v>70760</v>
@@ -5491,7 +5583,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="28">
         <v>10626</v>
@@ -5499,7 +5591,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="29">
         <v>291</v>
@@ -5507,7 +5599,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="30">
         <v>47743</v>
@@ -5515,7 +5607,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="31">
         <v>1387</v>
@@ -5523,7 +5615,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="28">
         <v>7695</v>
@@ -5531,7 +5623,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="27">
         <v>5678</v>
@@ -5539,7 +5631,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="28">
         <v>2361</v>
@@ -5547,7 +5639,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="27">
         <v>8065</v>
@@ -5555,7 +5647,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="32">
         <v>22557</v>
@@ -5563,7 +5655,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="30">
         <v>11972</v>
@@ -5571,7 +5663,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="31">
         <v>6575</v>
@@ -5579,7 +5671,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="32">
         <v>5397</v>
@@ -5587,7 +5679,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="33">
         <v>2711490</v>
@@ -5603,7 +5695,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5614,7 +5706,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5622,7 +5714,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="42">
         <v>2139374</v>
@@ -5742,7 +5834,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="37">
         <v>7095</v>
@@ -5750,7 +5842,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="38">
         <v>454880</v>
@@ -5758,7 +5850,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="39">
         <v>8612</v>
@@ -5766,7 +5858,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="36">
         <v>14502</v>
@@ -5774,7 +5866,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="35">
         <v>13062</v>
@@ -5782,7 +5874,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="36">
         <v>3094</v>
@@ -5790,7 +5882,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="35">
         <v>60775</v>
@@ -5798,7 +5890,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="36">
         <v>50541</v>
@@ -5806,7 +5898,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="35">
         <v>17844</v>
@@ -5814,7 +5906,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="36">
         <v>34973</v>
@@ -5822,7 +5914,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="35">
         <v>14483</v>
@@ -5830,7 +5922,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="36">
         <v>55721</v>
@@ -5838,7 +5930,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="35">
         <v>23579</v>
@@ -5846,7 +5938,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="36">
         <v>12746</v>
@@ -5854,7 +5946,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="35">
         <v>18821</v>
@@ -5862,7 +5954,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="36">
         <v>84057</v>
@@ -5870,7 +5962,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="35">
         <v>20913</v>
@@ -5878,7 +5970,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="40">
         <v>21157</v>
@@ -5886,7 +5978,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="38">
         <v>115477</v>
@@ -5894,7 +5986,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="39">
         <v>1948</v>
@@ -5902,7 +5994,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="36">
         <v>3525</v>
@@ -5910,7 +6002,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="35">
         <v>17110</v>
@@ -5918,7 +6010,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="36">
         <v>86319</v>
@@ -5926,7 +6018,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="37">
         <v>6575</v>
@@ -5934,7 +6026,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="38">
         <v>155716</v>
@@ -5942,7 +6034,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="39">
         <v>10770</v>
@@ -5950,7 +6042,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="36">
         <v>121895</v>
@@ -5958,7 +6050,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="35">
         <v>3664</v>
@@ -5966,7 +6058,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="36">
         <v>10760</v>
@@ -5974,7 +6066,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="35">
         <v>4209</v>
@@ -5982,7 +6074,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="40">
         <v>4418</v>
@@ -5990,7 +6082,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="38">
         <v>93090</v>
@@ -5998,7 +6090,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="39">
         <v>79304</v>
@@ -6006,7 +6098,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="36">
         <v>13476</v>
@@ -6014,7 +6106,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="37">
         <v>310</v>
@@ -6022,7 +6114,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="38">
         <v>111451</v>
@@ -6030,7 +6122,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="39">
         <v>2693</v>
@@ -6038,7 +6130,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="36">
         <v>16733</v>
@@ -6046,7 +6138,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="35">
         <v>11680</v>
@@ -6054,7 +6146,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="36">
         <v>6589</v>
@@ -6062,7 +6154,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="35">
         <v>28775</v>
@@ -6070,7 +6162,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="40">
         <v>44981</v>
@@ -6078,7 +6170,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="38">
         <v>18054</v>
@@ -6086,7 +6178,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="39">
         <v>8435</v>
@@ -6094,7 +6186,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="40">
         <v>9619</v>
@@ -6102,7 +6194,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="41">
         <v>3088042</v>
@@ -6117,8 +6209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6129,7 +6221,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6137,7 +6229,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="50">
         <v>2260337</v>
@@ -6257,7 +6349,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="45">
         <v>8748</v>
@@ -6265,7 +6357,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="46">
         <v>437739</v>
@@ -6273,7 +6365,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="47">
         <v>7249</v>
@@ -6281,7 +6373,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="44">
         <v>8212</v>
@@ -6289,7 +6381,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="43">
         <v>5788</v>
@@ -6297,7 +6389,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="44">
         <v>2324</v>
@@ -6305,7 +6397,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="43">
         <v>62879</v>
@@ -6313,7 +6405,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="44">
         <v>56346</v>
@@ -6321,7 +6413,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="43">
         <v>41339</v>
@@ -6329,7 +6421,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="44">
         <v>22156</v>
@@ -6337,7 +6429,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="43">
         <v>4931</v>
@@ -6345,7 +6437,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="44">
         <v>54409</v>
@@ -6353,7 +6445,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="43">
         <v>34071</v>
@@ -6361,7 +6453,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="44">
         <v>6812</v>
@@ -6369,7 +6461,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="43">
         <v>9728</v>
@@ -6377,7 +6469,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="44">
         <v>79841</v>
@@ -6385,7 +6477,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="43">
         <v>19029</v>
@@ -6393,7 +6485,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="48">
         <v>22625</v>
@@ -6401,7 +6493,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="46">
         <v>93383</v>
@@ -6409,7 +6501,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="47">
         <v>2499</v>
@@ -6417,7 +6509,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="44">
         <v>2968</v>
@@ -6425,7 +6517,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="43">
         <v>14742</v>
@@ -6433,7 +6525,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="44">
         <v>67917</v>
@@ -6441,7 +6533,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="45">
         <v>5257</v>
@@ -6449,7 +6541,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="46">
         <v>146864</v>
@@ -6457,7 +6549,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="47">
         <v>8875</v>
@@ -6465,7 +6557,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="44">
         <v>116376</v>
@@ -6473,7 +6565,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="43">
         <v>4234</v>
@@ -6481,7 +6573,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="44">
         <v>7125</v>
@@ -6489,7 +6581,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="43">
         <v>6112</v>
@@ -6497,7 +6589,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="48">
         <v>4142</v>
@@ -6505,7 +6597,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="46">
         <v>74000</v>
@@ -6513,7 +6605,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="47">
         <v>62810</v>
@@ -6521,7 +6613,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="44">
         <v>10913</v>
@@ -6529,7 +6621,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="45">
         <v>277</v>
@@ -6537,7 +6629,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="46">
         <v>103784</v>
@@ -6545,7 +6637,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="47">
         <v>3019</v>
@@ -6553,7 +6645,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="44">
         <v>19029</v>
@@ -6561,7 +6653,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="43">
         <v>13561</v>
@@ -6569,7 +6661,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="44">
         <v>6080</v>
@@ -6577,7 +6669,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="43">
         <v>23189</v>
@@ -6585,7 +6677,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="48">
         <v>38906</v>
@@ -6593,7 +6685,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="46">
         <v>17304</v>
@@ -6601,7 +6693,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="47">
         <v>5686</v>
@@ -6609,7 +6701,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="48">
         <v>11618</v>
@@ -6617,7 +6709,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="49">
         <v>3133411</v>
@@ -6633,7 +6725,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6644,7 +6736,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6652,7 +6744,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="59">
         <v>1885138</v>
@@ -6772,7 +6864,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" s="54">
         <v>5327</v>
@@ -6780,7 +6872,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="55">
         <v>310014</v>
@@ -6788,7 +6880,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="56">
         <v>5041</v>
@@ -6796,7 +6888,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="53">
         <v>6766</v>
@@ -6804,7 +6896,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="52">
         <v>5825</v>
@@ -6812,7 +6904,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="53">
         <v>3365</v>
@@ -6820,7 +6912,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="52">
         <v>30203</v>
@@ -6828,7 +6920,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="53">
         <v>50657</v>
@@ -6836,7 +6928,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="52">
         <v>13124</v>
@@ -6844,7 +6936,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="53">
         <v>12292</v>
@@ -6852,7 +6944,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="52">
         <v>4879</v>
@@ -6860,7 +6952,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="53">
         <v>50851</v>
@@ -6868,7 +6960,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="52">
         <v>16238</v>
@@ -6876,7 +6968,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="53">
         <v>7640</v>
@@ -6884,7 +6976,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="52">
         <v>10206</v>
@@ -6892,7 +6984,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="53">
         <v>60275</v>
@@ -6900,7 +6992,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="52">
         <v>17494</v>
@@ -6908,7 +7000,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B34" s="57">
         <v>15158</v>
@@ -6916,7 +7008,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="55">
         <v>88547</v>
@@ -6924,7 +7016,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="56">
         <v>2109</v>
@@ -6932,7 +7024,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="53">
         <v>3134</v>
@@ -6940,7 +7032,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="52">
         <v>13999</v>
@@ -6948,7 +7040,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="53">
         <v>62989</v>
@@ -6956,7 +7048,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B40" s="54">
         <v>6316</v>
@@ -6964,7 +7056,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="55">
         <v>149074</v>
@@ -6972,7 +7064,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="56">
         <v>13708</v>
@@ -6980,7 +7072,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="53">
         <v>115970</v>
@@ -6988,7 +7080,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="52">
         <v>4142</v>
@@ -6996,7 +7088,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="53">
         <v>6253</v>
@@ -7004,7 +7096,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="52">
         <v>5309</v>
@@ -7012,7 +7104,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B47" s="57">
         <v>3692</v>
@@ -7020,7 +7112,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="55">
         <v>83510</v>
@@ -7028,7 +7120,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="56">
         <v>73125</v>
@@ -7036,7 +7128,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="53">
         <v>9923</v>
@@ -7044,7 +7136,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B51" s="54">
         <v>462</v>
@@ -7052,7 +7144,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="55">
         <v>68959</v>
@@ -7060,7 +7152,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="56">
         <v>2121</v>
@@ -7068,7 +7160,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="53">
         <v>15121</v>
@@ -7076,7 +7168,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="52">
         <v>5068</v>
@@ -7084,7 +7176,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="53">
         <v>3575</v>
@@ -7092,7 +7184,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="52">
         <v>9972</v>
@@ -7100,7 +7192,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B58" s="57">
         <v>33102</v>
@@ -7108,7 +7200,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="55">
         <v>15037</v>
@@ -7116,7 +7208,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="56">
         <v>8118</v>
@@ -7124,7 +7216,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" s="57">
         <v>6919</v>
@@ -7132,7 +7224,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="58">
         <v>2600279</v>
